--- a/thesis_structure.xlsx
+++ b/thesis_structure.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pkolosov\OneDrive - Open Sky Data Systems\Desktop\WSB_STUDY\YEAR 2020-2021\DiplomaWork\BachelorsThesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00F8517E-3F5E-4839-BC22-53E2E06431F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87A7BF5D-065B-46CE-B17D-A35B8752DEF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -408,7 +408,7 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -494,27 +494,27 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+      <c r="B14" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+      <c r="B15" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+      <c r="B16" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
         <v>20</v>
       </c>
     </row>

--- a/thesis_structure.xlsx
+++ b/thesis_structure.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pkolosov\OneDrive - Open Sky Data Systems\Desktop\WSB_STUDY\YEAR 2020-2021\DiplomaWork\BachelorsThesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87A7BF5D-065B-46CE-B17D-A35B8752DEF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB4C9484-856E-4D46-9276-B98F84100F3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -408,7 +408,7 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -484,12 +484,12 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>15</v>
       </c>
     </row>
